--- a/medicine/Mort/Paix_-_Funérailles_en_mer/Paix_-_Funérailles_en_mer.xlsx
+++ b/medicine/Mort/Paix_-_Funérailles_en_mer/Paix_-_Funérailles_en_mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paix_-_Fun%C3%A9railles_en_mer</t>
+          <t>Paix_-_Funérailles_en_mer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paix - Funérailles en mer (titre original : Peace - Burial at Sea) est un tableau de Joseph Mallord William Turner. Il est exposé en 1842[1].
-Le sujet est « l'enterrement » en mer d'un ami de Turner, l'artiste David Wilkie[1].
-Le tableau contraste avec sa palette de noirs saturés avec son pendant, Guerre. L'Exilé et l'Arapède[1].
-Les deux œuvres ont été critiquées à l'époque pour leur manque de finition[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paix - Funérailles en mer (titre original : Peace - Burial at Sea) est un tableau de Joseph Mallord William Turner. Il est exposé en 1842.
+Le sujet est « l'enterrement » en mer d'un ami de Turner, l'artiste David Wilkie.
+Le tableau contraste avec sa palette de noirs saturés avec son pendant, Guerre. L'Exilé et l'Arapède.
+Les deux œuvres ont été critiquées à l'époque pour leur manque de finition.
 </t>
         </is>
       </c>
